--- a/Prj_ERROR404/02_Member/LuanNT/20140907_DatabaseDesign/YeuCauCSDL.xlsx
+++ b/Prj_ERROR404/02_Member/LuanNT/20140907_DatabaseDesign/YeuCauCSDL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>Đối tượng quản lý</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>bán chạy…</t>
+  </si>
+  <si>
+    <t>ghi logs hệ thống</t>
   </si>
 </sst>
 </file>
@@ -515,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -771,6 +774,11 @@
     <row r="43" spans="1:3">
       <c r="B43" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3">
